--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>26.6550978723832</v>
+        <v>0.763545</v>
       </c>
       <c r="H2">
-        <v>26.6550978723832</v>
+        <v>2.290635</v>
       </c>
       <c r="I2">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="J2">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.378285540036858</v>
+        <v>0.1306296666666667</v>
       </c>
       <c r="N2">
-        <v>0.378285540036858</v>
+        <v>0.391889</v>
       </c>
       <c r="O2">
-        <v>0.3009843092666869</v>
+        <v>0.08005521288665671</v>
       </c>
       <c r="P2">
-        <v>0.3009843092666869</v>
+        <v>0.08005521288665669</v>
       </c>
       <c r="Q2">
-        <v>10.08323809338978</v>
+        <v>0.09974162883500001</v>
       </c>
       <c r="R2">
-        <v>10.08323809338978</v>
+        <v>0.8976746595149999</v>
       </c>
       <c r="S2">
-        <v>0.286417304866482</v>
+        <v>0.002103124218921983</v>
       </c>
       <c r="T2">
-        <v>0.286417304866482</v>
+        <v>0.002103124218921982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>26.6550978723832</v>
+        <v>0.763545</v>
       </c>
       <c r="H3">
-        <v>26.6550978723832</v>
+        <v>2.290635</v>
       </c>
       <c r="I3">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="J3">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.285302456283729</v>
+        <v>0.383027</v>
       </c>
       <c r="N3">
-        <v>0.285302456283729</v>
+        <v>1.149081</v>
       </c>
       <c r="O3">
-        <v>0.2270019698037638</v>
+        <v>0.2347346418986304</v>
       </c>
       <c r="P3">
-        <v>0.2270019698037638</v>
+        <v>0.2347346418986304</v>
       </c>
       <c r="Q3">
-        <v>7.604764895474127</v>
+        <v>0.292458350715</v>
       </c>
       <c r="R3">
-        <v>7.604764895474127</v>
+        <v>2.632125156435</v>
       </c>
       <c r="S3">
-        <v>0.216015554262558</v>
+        <v>0.006166695366808179</v>
       </c>
       <c r="T3">
-        <v>0.216015554262558</v>
+        <v>0.006166695366808177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>26.6550978723832</v>
+        <v>0.763545</v>
       </c>
       <c r="H4">
-        <v>26.6550978723832</v>
+        <v>2.290635</v>
       </c>
       <c r="I4">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="J4">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.292239174838278</v>
+        <v>0.298871</v>
       </c>
       <c r="N4">
-        <v>0.292239174838278</v>
+        <v>0.896613</v>
       </c>
       <c r="O4">
-        <v>0.232521195948424</v>
+        <v>0.1831603964182305</v>
       </c>
       <c r="P4">
-        <v>0.232521195948424</v>
+        <v>0.1831603964182305</v>
       </c>
       <c r="Q4">
-        <v>7.789663807458806</v>
+        <v>0.228201457695</v>
       </c>
       <c r="R4">
-        <v>7.789663807458806</v>
+        <v>2.053813119255</v>
       </c>
       <c r="S4">
-        <v>0.2212676615273973</v>
+        <v>0.004811792408820599</v>
       </c>
       <c r="T4">
-        <v>0.2212676615273973</v>
+        <v>0.004811792408820598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>26.6550978723832</v>
+        <v>0.763545</v>
       </c>
       <c r="H5">
-        <v>26.6550978723832</v>
+        <v>2.290635</v>
       </c>
       <c r="I5">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="J5">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.301000937118628</v>
+        <v>0.3916943333333333</v>
       </c>
       <c r="N5">
-        <v>0.301000937118628</v>
+        <v>1.175083</v>
       </c>
       <c r="O5">
-        <v>0.2394925249811254</v>
+        <v>0.2400463389492719</v>
       </c>
       <c r="P5">
-        <v>0.2394925249811254</v>
+        <v>0.2400463389492719</v>
       </c>
       <c r="Q5">
-        <v>8.023209438576092</v>
+        <v>0.299076249745</v>
       </c>
       <c r="R5">
-        <v>8.023209438576092</v>
+        <v>2.691686247705</v>
       </c>
       <c r="S5">
-        <v>0.2279015929696992</v>
+        <v>0.00630623854342301</v>
       </c>
       <c r="T5">
-        <v>0.2279015929696992</v>
+        <v>0.006306238543423008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.35566155186016</v>
+        <v>0.763545</v>
       </c>
       <c r="H6">
-        <v>1.35566155186016</v>
+        <v>2.290635</v>
       </c>
       <c r="I6">
-        <v>0.04839788637386363</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="J6">
-        <v>0.04839788637386363</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.378285540036858</v>
+        <v>0.4275226666666667</v>
       </c>
       <c r="N6">
-        <v>0.378285540036858</v>
+        <v>1.282568</v>
       </c>
       <c r="O6">
-        <v>0.3009843092666869</v>
+        <v>0.2620034098472106</v>
       </c>
       <c r="P6">
-        <v>0.3009843092666869</v>
+        <v>0.2620034098472105</v>
       </c>
       <c r="Q6">
-        <v>0.5128271622526256</v>
+        <v>0.32643279452</v>
       </c>
       <c r="R6">
-        <v>0.5128271622526256</v>
+        <v>2.93789515068</v>
       </c>
       <c r="S6">
-        <v>0.01456700440020494</v>
+        <v>0.006883071030864172</v>
       </c>
       <c r="T6">
-        <v>0.01456700440020494</v>
+        <v>0.00688307103086417</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.35566155186016</v>
+        <v>26.92240033333333</v>
       </c>
       <c r="H7">
-        <v>1.35566155186016</v>
+        <v>80.767201</v>
       </c>
       <c r="I7">
-        <v>0.04839788637386363</v>
+        <v>0.9263059382248019</v>
       </c>
       <c r="J7">
-        <v>0.04839788637386363</v>
+        <v>0.9263059382248019</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.285302456283729</v>
+        <v>0.1306296666666667</v>
       </c>
       <c r="N7">
-        <v>0.285302456283729</v>
+        <v>0.391889</v>
       </c>
       <c r="O7">
-        <v>0.2270019698037638</v>
+        <v>0.08005521288665671</v>
       </c>
       <c r="P7">
-        <v>0.2270019698037638</v>
+        <v>0.08005521288665669</v>
       </c>
       <c r="Q7">
-        <v>0.3867735706351155</v>
+        <v>3.516864181409889</v>
       </c>
       <c r="R7">
-        <v>0.3867735706351155</v>
+        <v>31.651777632689</v>
       </c>
       <c r="S7">
-        <v>0.01098641554120578</v>
+        <v>0.07415561908276079</v>
       </c>
       <c r="T7">
-        <v>0.01098641554120578</v>
+        <v>0.07415561908276078</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.35566155186016</v>
+        <v>26.92240033333333</v>
       </c>
       <c r="H8">
-        <v>1.35566155186016</v>
+        <v>80.767201</v>
       </c>
       <c r="I8">
-        <v>0.04839788637386363</v>
+        <v>0.9263059382248019</v>
       </c>
       <c r="J8">
-        <v>0.04839788637386363</v>
+        <v>0.9263059382248019</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.292239174838278</v>
+        <v>0.383027</v>
       </c>
       <c r="N8">
-        <v>0.292239174838278</v>
+        <v>1.149081</v>
       </c>
       <c r="O8">
-        <v>0.232521195948424</v>
+        <v>0.2347346418986304</v>
       </c>
       <c r="P8">
-        <v>0.232521195948424</v>
+        <v>0.2347346418986304</v>
       </c>
       <c r="Q8">
-        <v>0.3961774132755926</v>
+        <v>10.31200623247567</v>
       </c>
       <c r="R8">
-        <v>0.3961774132755926</v>
+        <v>92.80805609228101</v>
       </c>
       <c r="S8">
-        <v>0.0112535344210267</v>
+        <v>0.2174360926977737</v>
       </c>
       <c r="T8">
-        <v>0.0112535344210267</v>
+        <v>0.2174360926977737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>26.92240033333333</v>
+      </c>
+      <c r="H9">
+        <v>80.767201</v>
+      </c>
+      <c r="I9">
+        <v>0.9263059382248019</v>
+      </c>
+      <c r="J9">
+        <v>0.9263059382248019</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.298871</v>
+      </c>
+      <c r="N9">
+        <v>0.896613</v>
+      </c>
+      <c r="O9">
+        <v>0.1831603964182305</v>
+      </c>
+      <c r="P9">
+        <v>0.1831603964182305</v>
+      </c>
+      <c r="Q9">
+        <v>8.046324710023667</v>
+      </c>
+      <c r="R9">
+        <v>72.416922390213</v>
+      </c>
+      <c r="S9">
+        <v>0.1696625628498156</v>
+      </c>
+      <c r="T9">
+        <v>0.1696625628498156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>26.92240033333333</v>
+      </c>
+      <c r="H10">
+        <v>80.767201</v>
+      </c>
+      <c r="I10">
+        <v>0.9263059382248019</v>
+      </c>
+      <c r="J10">
+        <v>0.9263059382248019</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3916943333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.175083</v>
+      </c>
+      <c r="O10">
+        <v>0.2400463389492719</v>
+      </c>
+      <c r="P10">
+        <v>0.2400463389492719</v>
+      </c>
+      <c r="Q10">
+        <v>10.54535165029811</v>
+      </c>
+      <c r="R10">
+        <v>94.90816485268299</v>
+      </c>
+      <c r="S10">
+        <v>0.2223563492178341</v>
+      </c>
+      <c r="T10">
+        <v>0.2223563492178341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>26.92240033333333</v>
+      </c>
+      <c r="H11">
+        <v>80.767201</v>
+      </c>
+      <c r="I11">
+        <v>0.9263059382248019</v>
+      </c>
+      <c r="J11">
+        <v>0.9263059382248019</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4275226666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.282568</v>
+      </c>
+      <c r="O11">
+        <v>0.2620034098472106</v>
+      </c>
+      <c r="P11">
+        <v>0.2620034098472105</v>
+      </c>
+      <c r="Q11">
+        <v>11.50993638357422</v>
+      </c>
+      <c r="R11">
+        <v>103.589427452168</v>
+      </c>
+      <c r="S11">
+        <v>0.2426953143766177</v>
+      </c>
+      <c r="T11">
+        <v>0.2426953143766177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.378318666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.134956</v>
+      </c>
+      <c r="I12">
+        <v>0.04742314020636018</v>
+      </c>
+      <c r="J12">
+        <v>0.04742314020636017</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1306296666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.391889</v>
+      </c>
+      <c r="O12">
+        <v>0.08005521288665671</v>
+      </c>
+      <c r="P12">
+        <v>0.08005521288665669</v>
+      </c>
+      <c r="Q12">
+        <v>0.1800493079871111</v>
+      </c>
+      <c r="R12">
+        <v>1.620443771884</v>
+      </c>
+      <c r="S12">
+        <v>0.003796469584973933</v>
+      </c>
+      <c r="T12">
+        <v>0.003796469584973932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.35566155186016</v>
-      </c>
-      <c r="H9">
-        <v>1.35566155186016</v>
-      </c>
-      <c r="I9">
-        <v>0.04839788637386363</v>
-      </c>
-      <c r="J9">
-        <v>0.04839788637386363</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.301000937118628</v>
-      </c>
-      <c r="N9">
-        <v>0.301000937118628</v>
-      </c>
-      <c r="O9">
-        <v>0.2394925249811254</v>
-      </c>
-      <c r="P9">
-        <v>0.2394925249811254</v>
-      </c>
-      <c r="Q9">
-        <v>0.4080553975256017</v>
-      </c>
-      <c r="R9">
-        <v>0.4080553975256017</v>
-      </c>
-      <c r="S9">
-        <v>0.0115909320114262</v>
-      </c>
-      <c r="T9">
-        <v>0.0115909320114262</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.378318666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.134956</v>
+      </c>
+      <c r="I13">
+        <v>0.04742314020636018</v>
+      </c>
+      <c r="J13">
+        <v>0.04742314020636017</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.383027</v>
+      </c>
+      <c r="N13">
+        <v>1.149081</v>
+      </c>
+      <c r="O13">
+        <v>0.2347346418986304</v>
+      </c>
+      <c r="P13">
+        <v>0.2347346418986304</v>
+      </c>
+      <c r="Q13">
+        <v>0.5279332639373333</v>
+      </c>
+      <c r="R13">
+        <v>4.751399375436</v>
+      </c>
+      <c r="S13">
+        <v>0.0111318538340485</v>
+      </c>
+      <c r="T13">
+        <v>0.0111318538340485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.378318666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.134956</v>
+      </c>
+      <c r="I14">
+        <v>0.04742314020636018</v>
+      </c>
+      <c r="J14">
+        <v>0.04742314020636017</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.298871</v>
+      </c>
+      <c r="N14">
+        <v>0.896613</v>
+      </c>
+      <c r="O14">
+        <v>0.1831603964182305</v>
+      </c>
+      <c r="P14">
+        <v>0.1831603964182305</v>
+      </c>
+      <c r="Q14">
+        <v>0.4119394782253333</v>
+      </c>
+      <c r="R14">
+        <v>3.707455304028</v>
+      </c>
+      <c r="S14">
+        <v>0.008686041159594255</v>
+      </c>
+      <c r="T14">
+        <v>0.008686041159594253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.378318666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.134956</v>
+      </c>
+      <c r="I15">
+        <v>0.04742314020636018</v>
+      </c>
+      <c r="J15">
+        <v>0.04742314020636017</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3916943333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.175083</v>
+      </c>
+      <c r="O15">
+        <v>0.2400463389492719</v>
+      </c>
+      <c r="P15">
+        <v>0.2400463389492719</v>
+      </c>
+      <c r="Q15">
+        <v>0.5398796112608889</v>
+      </c>
+      <c r="R15">
+        <v>4.858916501347999</v>
+      </c>
+      <c r="S15">
+        <v>0.01138375118801478</v>
+      </c>
+      <c r="T15">
+        <v>0.01138375118801478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.378318666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.134956</v>
+      </c>
+      <c r="I16">
+        <v>0.04742314020636018</v>
+      </c>
+      <c r="J16">
+        <v>0.04742314020636017</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4275226666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.282568</v>
+      </c>
+      <c r="O16">
+        <v>0.2620034098472106</v>
+      </c>
+      <c r="P16">
+        <v>0.2620034098472105</v>
+      </c>
+      <c r="Q16">
+        <v>0.5892624718897778</v>
+      </c>
+      <c r="R16">
+        <v>5.303362247008</v>
+      </c>
+      <c r="S16">
+        <v>0.01242502443972872</v>
+      </c>
+      <c r="T16">
+        <v>0.01242502443972871</v>
       </c>
     </row>
   </sheetData>
